--- a/Producción Fiscalizada Crudo 2019-DIC.xlsx
+++ b/Producción Fiscalizada Crudo 2019-DIC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielSan\Documents\GitHub\Prueba-datos-ANH-Hackaton-SPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA842C01-6310-4A4E-BB71-5B1F5CCBC171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B325A43-AE89-4E56-BF74-3DD72728E783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2197,9 +2197,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2483,8 +2481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q460"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2522,34 +2520,34 @@
         <v>43497</v>
       </c>
       <c r="H1" s="16">
-        <v>43528</v>
+        <v>43525</v>
       </c>
       <c r="I1" s="16">
-        <v>43559</v>
+        <v>43556</v>
       </c>
       <c r="J1" s="16">
-        <v>43590</v>
+        <v>43586</v>
       </c>
       <c r="K1" s="16">
-        <v>43621</v>
+        <v>43617</v>
       </c>
       <c r="L1" s="16">
-        <v>43652</v>
+        <v>43647</v>
       </c>
       <c r="M1" s="16">
-        <v>43683</v>
+        <v>43678</v>
       </c>
       <c r="N1" s="16">
-        <v>43714</v>
+        <v>43709</v>
       </c>
       <c r="O1" s="16">
-        <v>43745</v>
+        <v>43739</v>
       </c>
       <c r="P1" s="16">
-        <v>43776</v>
+        <v>43770</v>
       </c>
       <c r="Q1" s="16">
-        <v>43807</v>
+        <v>43800</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -26744,9 +26742,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26890,19 +26891,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075EC24D-2FC4-4BF0-91E6-3CB303702DC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{500A7C2A-EBAB-4683-8089-1B47CDBB23B6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26926,9 +26923,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{500A7C2A-EBAB-4683-8089-1B47CDBB23B6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075EC24D-2FC4-4BF0-91E6-3CB303702DC3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Producción Fiscalizada Crudo 2019-DIC.xlsx
+++ b/Producción Fiscalizada Crudo 2019-DIC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielSan\Documents\GitHub\Prueba-datos-ANH-Hackaton-SPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B325A43-AE89-4E56-BF74-3DD72728E783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A7CF0D-13E6-45CC-98CA-79DE241C33BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2197,7 +2197,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -26742,15 +26742,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008F930251186CB0499D7625AA475F410A" ma:contentTypeVersion="1" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="418ac9787a3dc47b1a26e96bf56cbbc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4afde810-2293-4670-bb5c-117753097ca5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85a954d37448c6d1ce4186c211e8601e" ns2:_="">
     <xsd:import namespace="4afde810-2293-4670-bb5c-117753097ca5"/>
@@ -26890,6 +26881,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -26897,14 +26897,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{500A7C2A-EBAB-4683-8089-1B47CDBB23B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C59092CF-5DB4-401E-BAAF-77AE2F237589}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26922,6 +26914,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{500A7C2A-EBAB-4683-8089-1B47CDBB23B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075EC24D-2FC4-4BF0-91E6-3CB303702DC3}">
   <ds:schemaRefs>
